--- a/Account Approval 1 .xlsx
+++ b/Account Approval 1 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhivya.TRANSITUSNEXGEN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50224C7A-F49D-400B-B138-8C4DE308EC11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045089A4-9B22-45CB-9F79-6B2F85D25C9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,7 +214,7 @@
     <t>User should be able to view the request is either 'Approved' or 'Rejected'.</t>
   </si>
   <si>
-    <t>Approval</t>
+    <t>Approved</t>
   </si>
 </sst>
 </file>
